--- a/Einwohner_Landkreise.xlsx
+++ b/Einwohner_Landkreise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achim Sauter\BigData\Antwerp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PytProg\Covid\Covid01\streamlit_covid19_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4307FCE2-E61D-4348-9DFC-673A1DC926AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6DF145-0BE6-4AC8-B708-A239312B2C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EE20E8F-FB29-4444-BDB8-95CB2631EB8D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="801">
   <si>
     <t>Flensburg, Stadt</t>
   </si>
@@ -2422,6 +2423,21 @@
   </si>
   <si>
     <t>StädteRegion Aachen</t>
+  </si>
+  <si>
+    <t>Kreisfreie Stadt</t>
+  </si>
+  <si>
+    <t>Kreis</t>
+  </si>
+  <si>
+    <t>Landkreis</t>
+  </si>
+  <si>
+    <t>Stadtkreis</t>
+  </si>
+  <si>
+    <t>Regionalverband</t>
   </si>
 </sst>
 </file>
@@ -2434,7 +2450,7 @@
     <numFmt numFmtId="166" formatCode="#\ ###\ ###\ ###\ ##0"/>
     <numFmt numFmtId="167" formatCode="\ ##\ ###\ ##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2462,6 +2478,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MetaNormalLF-Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2494,7 +2514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2541,6 +2561,16 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2856,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C4200-2AE4-42C6-926C-F2B1AAADA2B6}">
-  <dimension ref="A1:C503"/>
+  <dimension ref="A1:J502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="D329" sqref="D329"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="A396" sqref="A396:XFD396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2869,11 +2899,11 @@
     <col min="3" max="3" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1"/>
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>386</v>
       </c>
@@ -2883,8 +2913,17 @@
       <c r="C2" s="15">
         <v>89934</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="21">
+        <v>1001</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>387</v>
       </c>
@@ -2894,8 +2933,17 @@
       <c r="C3" s="15">
         <v>246601</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="21">
+        <v>1002</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>388</v>
       </c>
@@ -2905,8 +2953,17 @@
       <c r="C4" s="15">
         <v>215846</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="21">
+        <v>1003</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -2916,8 +2973,17 @@
       <c r="C5" s="15">
         <v>79905</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="21">
+        <v>1004</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>390</v>
       </c>
@@ -2927,8 +2993,17 @@
       <c r="C6" s="15">
         <v>133251</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="21">
+        <v>1051</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>391</v>
       </c>
@@ -2938,8 +3013,17 @@
       <c r="C7" s="15">
         <v>199152</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="21">
+        <v>1053</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>392</v>
       </c>
@@ -2949,8 +3033,17 @@
       <c r="C8" s="15">
         <v>167147</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="21">
+        <v>1054</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>393</v>
       </c>
@@ -2960,8 +3053,17 @@
       <c r="C9" s="15">
         <v>201487</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="21">
+        <v>1055</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>394</v>
       </c>
@@ -2971,8 +3073,17 @@
       <c r="C10" s="15">
         <v>317085</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="21">
+        <v>1056</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>395</v>
       </c>
@@ -2982,8 +3093,17 @@
       <c r="C11" s="15">
         <v>129353</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="21">
+        <v>1057</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>396</v>
       </c>
@@ -2993,8 +3113,17 @@
       <c r="C12" s="15">
         <v>274765</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="21">
+        <v>1058</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>397</v>
       </c>
@@ -3004,8 +3133,17 @@
       <c r="C13" s="15">
         <v>202647</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="21">
+        <v>1059</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>398</v>
       </c>
@@ -3015,8 +3153,17 @@
       <c r="C14" s="15">
         <v>278007</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="21">
+        <v>1060</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>399</v>
       </c>
@@ -3026,8 +3173,17 @@
       <c r="C15" s="15">
         <v>130706</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="21">
+        <v>1061</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>400</v>
       </c>
@@ -3037,8 +3193,17 @@
       <c r="C16" s="15">
         <v>244989</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="21">
+        <v>1062</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>401</v>
       </c>
@@ -3048,8 +3213,17 @@
       <c r="C17" s="16">
         <v>1852478</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="21">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>402</v>
       </c>
@@ -3059,8 +3233,17 @@
       <c r="C18" s="15">
         <v>248561</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="21">
+        <v>3101</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>403</v>
       </c>
@@ -3070,8 +3253,17 @@
       <c r="C19" s="15">
         <v>103866</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="21">
+        <v>3102</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -3081,8 +3273,17 @@
       <c r="C20" s="15">
         <v>123840</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="21">
+        <v>3103</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>405</v>
       </c>
@@ -3092,8 +3293,17 @@
       <c r="C21" s="15">
         <v>177227</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="21">
+        <v>3151</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>406</v>
       </c>
@@ -3103,8 +3313,17 @@
       <c r="C22" s="15">
         <v>134688</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="21">
+        <v>3153</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>407</v>
       </c>
@@ -3114,8 +3333,17 @@
       <c r="C23" s="15">
         <v>91518</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="21">
+        <v>3154</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>408</v>
       </c>
@@ -3125,8 +3353,17 @@
       <c r="C24" s="15">
         <v>131772</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="21">
+        <v>3155</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>409</v>
       </c>
@@ -3136,8 +3373,17 @@
       <c r="C25" s="15">
         <v>135844</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="21">
+        <v>3157</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>410</v>
       </c>
@@ -3147,8 +3393,17 @@
       <c r="C26" s="15">
         <v>119361</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="21">
+        <v>3158</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>411</v>
       </c>
@@ -3158,8 +3413,17 @@
       <c r="C27" s="15">
         <v>323900</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="21">
+        <v>3159</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3169,8 +3433,17 @@
       <c r="C28" s="15">
         <v>1155330</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="21">
+        <v>3241</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>412</v>
       </c>
@@ -3180,8 +3453,17 @@
       <c r="C29" s="15">
         <v>218072</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="21">
+        <v>3251</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>413</v>
       </c>
@@ -3191,8 +3473,17 @@
       <c r="C30" s="15">
         <v>148580</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="21">
+        <v>3252</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>414</v>
       </c>
@@ -3202,8 +3493,17 @@
       <c r="C31" s="15">
         <v>275464</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="21">
+        <v>3254</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>415</v>
       </c>
@@ -3213,8 +3513,17 @@
       <c r="C32" s="15">
         <v>70207</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="21">
+        <v>3255</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>416</v>
       </c>
@@ -3224,8 +3533,17 @@
       <c r="C33" s="15">
         <v>121645</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="21">
+        <v>3256</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>417</v>
       </c>
@@ -3235,8 +3553,17 @@
       <c r="C34" s="15">
         <v>158406</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="21">
+        <v>3257</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>418</v>
       </c>
@@ -3246,8 +3573,17 @@
       <c r="C35" s="15">
         <v>179386</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="21">
+        <v>3351</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -3257,8 +3593,17 @@
       <c r="C36" s="15">
         <v>198826</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="21">
+        <v>3352</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>420</v>
       </c>
@@ -3268,8 +3613,17 @@
       <c r="C37" s="15">
         <v>256016</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="21">
+        <v>3353</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>421</v>
       </c>
@@ -3279,8 +3633,17 @@
       <c r="C38" s="15">
         <v>48503</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="21">
+        <v>3354</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>422</v>
       </c>
@@ -3290,8 +3653,17 @@
       <c r="C39" s="15">
         <v>184235</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="21">
+        <v>3355</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>423</v>
       </c>
@@ -3301,8 +3673,17 @@
       <c r="C40" s="15">
         <v>114640</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="21">
+        <v>3356</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>424</v>
       </c>
@@ -3312,8 +3693,17 @@
       <c r="C41" s="15">
         <v>164486</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="21">
+        <v>3357</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>425</v>
       </c>
@@ -3323,8 +3713,17 @@
       <c r="C42" s="15">
         <v>140885</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="21">
+        <v>3358</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>426</v>
       </c>
@@ -3334,8 +3733,17 @@
       <c r="C43" s="15">
         <v>205357</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="21">
+        <v>3359</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>427</v>
       </c>
@@ -3345,8 +3753,17 @@
       <c r="C44" s="15">
         <v>92566</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="21">
+        <v>3360</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>428</v>
       </c>
@@ -3356,8 +3773,17 @@
       <c r="C45" s="15">
         <v>137574</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="21">
+        <v>3361</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>429</v>
       </c>
@@ -3367,8 +3793,17 @@
       <c r="C46" s="15">
         <v>77503</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="21">
+        <v>3401</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>430</v>
       </c>
@@ -3378,8 +3813,17 @@
       <c r="C47" s="15">
         <v>49874</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="21">
+        <v>3402</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>431</v>
       </c>
@@ -3389,8 +3833,17 @@
       <c r="C48" s="15">
         <v>169605</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="21">
+        <v>3403</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>432</v>
       </c>
@@ -3400,8 +3853,17 @@
       <c r="C49" s="15">
         <v>164223</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="21">
+        <v>3404</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>433</v>
       </c>
@@ -3411,8 +3873,17 @@
       <c r="C50" s="15">
         <v>75189</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="21">
+        <v>3405</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>434</v>
       </c>
@@ -3422,8 +3893,17 @@
       <c r="C51" s="15">
         <v>125643</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="21">
+        <v>3451</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>435</v>
       </c>
@@ -3433,8 +3913,17 @@
       <c r="C52" s="15">
         <v>190178</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="21">
+        <v>3452</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>436</v>
       </c>
@@ -3444,8 +3933,17 @@
       <c r="C53" s="15">
         <v>172632</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="21">
+        <v>3453</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -3455,8 +3953,17 @@
       <c r="C54" s="15">
         <v>328930</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="21">
+        <v>3454</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>438</v>
       </c>
@@ -3466,8 +3973,17 @@
       <c r="C55" s="15">
         <v>98971</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="21">
+        <v>3455</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>439</v>
       </c>
@@ -3477,8 +3993,17 @@
       <c r="C56" s="15">
         <v>137891</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="21">
+        <v>3456</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>440</v>
       </c>
@@ -3488,8 +4013,17 @@
       <c r="C57" s="15">
         <v>171483</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="21">
+        <v>3457</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>441</v>
       </c>
@@ -3499,8 +4033,17 @@
       <c r="C58" s="15">
         <v>131467</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="21">
+        <v>3458</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>442</v>
       </c>
@@ -3510,8 +4053,17 @@
       <c r="C59" s="15">
         <v>359471</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="21">
+        <v>3459</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>443</v>
       </c>
@@ -3521,8 +4073,17 @@
       <c r="C60" s="15">
         <v>143698</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="21">
+        <v>3460</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>444</v>
       </c>
@@ -3532,8 +4093,17 @@
       <c r="C61" s="15">
         <v>88524</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="21">
+        <v>3461</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>445</v>
       </c>
@@ -3543,8 +4113,17 @@
       <c r="C62" s="15">
         <v>57384</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="21">
+        <v>3462</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>446</v>
       </c>
@@ -3554,8 +4133,17 @@
       <c r="C63" s="15">
         <v>566573</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="21">
+        <v>4011</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>447</v>
       </c>
@@ -3565,8 +4153,17 @@
       <c r="C64" s="15">
         <v>113557</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="21">
+        <v>4012</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>448</v>
       </c>
@@ -3576,8 +4173,17 @@
       <c r="C65" s="15">
         <v>620523</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="21">
+        <v>5111</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>449</v>
       </c>
@@ -3587,8 +4193,17 @@
       <c r="C66" s="15">
         <v>495885</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="21">
+        <v>5112</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>450</v>
       </c>
@@ -3598,8 +4213,17 @@
       <c r="C67" s="15">
         <v>582415</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="21">
+        <v>5113</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>451</v>
       </c>
@@ -3609,8 +4233,17 @@
       <c r="C68" s="15">
         <v>226844</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="21">
+        <v>5114</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>452</v>
       </c>
@@ -3620,8 +4253,17 @@
       <c r="C69" s="15">
         <v>259665</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="21">
+        <v>5116</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>453</v>
       </c>
@@ -3631,8 +4273,17 @@
       <c r="C70" s="15">
         <v>170921</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="21">
+        <v>5117</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>454</v>
       </c>
@@ -3642,8 +4293,17 @@
       <c r="C71" s="15">
         <v>209566</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="21">
+        <v>5119</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -3653,8 +4313,17 @@
       <c r="C72" s="15">
         <v>111516</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="21">
+        <v>5120</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>456</v>
       </c>
@@ -3664,8 +4333,17 @@
       <c r="C73" s="15">
         <v>159193</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="21">
+        <v>5122</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>457</v>
       </c>
@@ -3675,8 +4353,17 @@
       <c r="C74" s="15">
         <v>355004</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="21">
+        <v>5124</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>458</v>
       </c>
@@ -3686,8 +4373,17 @@
       <c r="C75" s="15">
         <v>313586</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="21">
+        <v>5154</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>459</v>
       </c>
@@ -3697,8 +4393,17 @@
       <c r="C76" s="15">
         <v>484322</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="21">
+        <v>5158</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>460</v>
       </c>
@@ -3708,8 +4413,17 @@
       <c r="C77" s="15">
         <v>452001</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="21">
+        <v>5162</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>461</v>
       </c>
@@ -3719,8 +4433,17 @@
       <c r="C78" s="15">
         <v>298536</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="21">
+        <v>5166</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>462</v>
       </c>
@@ -3730,8 +4453,17 @@
       <c r="C79" s="15">
         <v>460113</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="21">
+        <v>5170</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>463</v>
       </c>
@@ -3741,8 +4473,17 @@
       <c r="C80" s="15">
         <v>330579</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="21">
+        <v>5314</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>464</v>
       </c>
@@ -3752,8 +4493,17 @@
       <c r="C81" s="15">
         <v>1083498</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="21">
+        <v>5315</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>465</v>
       </c>
@@ -3763,8 +4513,17 @@
       <c r="C82" s="15">
         <v>163905</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="21">
+        <v>5316</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>795</v>
       </c>
@@ -3774,8 +4533,17 @@
       <c r="C83" s="15">
         <v>556631</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="21">
+        <v>5334</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>466</v>
       </c>
@@ -3785,8 +4553,17 @@
       <c r="C84" s="15">
         <v>265140</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="21">
+        <v>5358</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>467</v>
       </c>
@@ -3796,8 +4573,17 @@
       <c r="C85" s="15">
         <v>469611</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="21">
+        <v>5362</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>468</v>
       </c>
@@ -3807,8 +4593,17 @@
       <c r="C86" s="15">
         <v>194359</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="21">
+        <v>5366</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>469</v>
       </c>
@@ -3818,8 +4613,17 @@
       <c r="C87" s="15">
         <v>256458</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="21">
+        <v>5370</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>470</v>
       </c>
@@ -3829,8 +4633,17 @@
       <c r="C88" s="15">
         <v>271699</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="21">
+        <v>5374</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>471</v>
       </c>
@@ -3840,8 +4653,17 @@
       <c r="C89" s="15">
         <v>283275</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="21">
+        <v>5378</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>472</v>
       </c>
@@ -3851,8 +4673,17 @@
       <c r="C90" s="15">
         <v>600375</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="21">
+        <v>5382</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>473</v>
       </c>
@@ -3862,8 +4693,17 @@
       <c r="C91" s="15">
         <v>117388</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="21">
+        <v>5512</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>474</v>
       </c>
@@ -3873,8 +4713,17 @@
       <c r="C92" s="15">
         <v>259105</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="21">
+        <v>5513</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>475</v>
       </c>
@@ -3884,8 +4733,17 @@
       <c r="C93" s="15">
         <v>316403</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="21">
+        <v>5515</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>476</v>
       </c>
@@ -3895,8 +4753,17 @@
       <c r="C94" s="15">
         <v>371898</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="21">
+        <v>5554</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>477</v>
       </c>
@@ -3906,8 +4773,17 @@
       <c r="C95" s="15">
         <v>220712</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="21">
+        <v>5558</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>478</v>
       </c>
@@ -3917,8 +4793,17 @@
       <c r="C96" s="15">
         <v>613599</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="21">
+        <v>5562</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>479</v>
       </c>
@@ -3928,8 +4813,17 @@
       <c r="C97" s="15">
         <v>448197</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="21">
+        <v>5566</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>480</v>
       </c>
@@ -3939,8 +4833,17 @@
       <c r="C98" s="15">
         <v>277417</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="21">
+        <v>5570</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>481</v>
       </c>
@@ -3950,8 +4853,17 @@
       <c r="C99" s="15">
         <v>333509</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="21">
+        <v>5711</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>482</v>
       </c>
@@ -3961,8 +4873,17 @@
       <c r="C100" s="15">
         <v>364818</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="21">
+        <v>5754</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>483</v>
       </c>
@@ -3972,8 +4893,17 @@
       <c r="C101" s="15">
         <v>250547</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="21">
+        <v>5758</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>484</v>
       </c>
@@ -3983,8 +4913,17 @@
       <c r="C102" s="15">
         <v>139729</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="21">
+        <v>5762</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>485</v>
       </c>
@@ -3994,8 +4933,17 @@
       <c r="C103" s="15">
         <v>346970</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="21">
+        <v>5766</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>486</v>
       </c>
@@ -4005,8 +4953,17 @@
       <c r="C104" s="15">
         <v>310270</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="21">
+        <v>5770</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>487</v>
       </c>
@@ -4016,8 +4973,17 @@
       <c r="C105" s="15">
         <v>308335</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="21">
+        <v>5774</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>488</v>
       </c>
@@ -4027,8 +4993,17 @@
       <c r="C106" s="15">
         <v>364454</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="21">
+        <v>5911</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>489</v>
       </c>
@@ -4038,8 +5013,17 @@
       <c r="C107" s="15">
         <v>587696</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="21">
+        <v>5913</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>490</v>
       </c>
@@ -4049,8 +5033,17 @@
       <c r="C108" s="15">
         <v>188687</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="21">
+        <v>5914</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>491</v>
       </c>
@@ -4060,8 +5053,17 @@
       <c r="C109" s="15">
         <v>178967</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="21">
+        <v>5915</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>492</v>
       </c>
@@ -4071,8 +5073,17 @@
       <c r="C110" s="15">
         <v>156940</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="21">
+        <v>5916</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>493</v>
       </c>
@@ -4082,8 +5093,17 @@
       <c r="C111" s="15">
         <v>323130</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="21">
+        <v>5954</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>494</v>
       </c>
@@ -4093,8 +5113,17 @@
       <c r="C112" s="15">
         <v>259030</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="21">
+        <v>5958</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>495</v>
       </c>
@@ -4104,8 +5133,17 @@
       <c r="C113" s="15">
         <v>408662</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="21">
+        <v>5962</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>496</v>
       </c>
@@ -4115,8 +5153,17 @@
       <c r="C114" s="15">
         <v>133362</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="21">
+        <v>5966</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>497</v>
       </c>
@@ -4126,8 +5173,17 @@
       <c r="C115" s="15">
         <v>275491</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="21">
+        <v>5970</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>498</v>
       </c>
@@ -4137,8 +5193,17 @@
       <c r="C116" s="15">
         <v>301016</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="21">
+        <v>5974</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>499</v>
       </c>
@@ -4148,8 +5213,17 @@
       <c r="C117" s="15">
         <v>393618</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="21">
+        <v>5978</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>500</v>
       </c>
@@ -4159,8 +5233,17 @@
       <c r="C118" s="15">
         <v>159174</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="21">
+        <v>6411</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>501</v>
       </c>
@@ -4170,8 +5253,17 @@
       <c r="C119" s="15">
         <v>764104</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="21">
+        <v>6412</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>502</v>
       </c>
@@ -4181,8 +5273,17 @@
       <c r="C120" s="15">
         <v>130892</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="21">
+        <v>6413</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>503</v>
       </c>
@@ -4192,8 +5293,17 @@
       <c r="C121" s="15">
         <v>278609</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="21">
+        <v>6414</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>504</v>
       </c>
@@ -4203,8 +5313,17 @@
       <c r="C122" s="15">
         <v>271015</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="21">
+        <v>6431</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>505</v>
       </c>
@@ -4214,8 +5333,17 @@
       <c r="C123" s="15">
         <v>297701</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="21">
+        <v>6432</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>506</v>
       </c>
@@ -4225,8 +5353,17 @@
       <c r="C124" s="15">
         <v>275807</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="21">
+        <v>6433</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>507</v>
       </c>
@@ -4236,8 +5373,17 @@
       <c r="C125" s="15">
         <v>237281</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="21">
+        <v>6434</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>508</v>
       </c>
@@ -4247,8 +5393,17 @@
       <c r="C126" s="15">
         <v>421689</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="21">
+        <v>6435</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>509</v>
       </c>
@@ -4258,8 +5413,17 @@
       <c r="C127" s="15">
         <v>239264</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="21">
+        <v>6436</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>510</v>
       </c>
@@ -4269,8 +5433,17 @@
       <c r="C128" s="15">
         <v>96754</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="21">
+        <v>6437</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>511</v>
       </c>
@@ -4280,8 +5453,17 @@
       <c r="C129" s="15">
         <v>356542</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="21">
+        <v>6438</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>512</v>
       </c>
@@ -4291,8 +5473,17 @@
       <c r="C130" s="15">
         <v>187433</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="21">
+        <v>6439</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>513</v>
       </c>
@@ -4302,8 +5493,17 @@
       <c r="C131" s="15">
         <v>310353</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="21">
+        <v>6440</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>514</v>
       </c>
@@ -4313,8 +5513,17 @@
       <c r="C132" s="15">
         <v>271667</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="21">
+        <v>6531</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>515</v>
       </c>
@@ -4324,8 +5533,17 @@
       <c r="C133" s="15">
         <v>253373</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="21">
+        <v>6532</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>516</v>
       </c>
@@ -4335,8 +5553,17 @@
       <c r="C134" s="15">
         <v>172291</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" s="21">
+        <v>6533</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>517</v>
       </c>
@@ -4346,8 +5573,17 @@
       <c r="C135" s="15">
         <v>245903</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" s="21">
+        <v>6534</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>518</v>
       </c>
@@ -4357,8 +5593,17 @@
       <c r="C136" s="15">
         <v>105506</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" s="21">
+        <v>6535</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>519</v>
       </c>
@@ -4368,8 +5613,17 @@
       <c r="C137" s="15">
         <v>201048</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" s="21">
+        <v>6611</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>520</v>
       </c>
@@ -4379,8 +5633,17 @@
       <c r="C138" s="15">
         <v>223023</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" s="21">
+        <v>6631</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>521</v>
       </c>
@@ -4390,8 +5653,17 @@
       <c r="C139" s="15">
         <v>120304</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" s="21">
+        <v>6632</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>522</v>
       </c>
@@ -4401,8 +5673,17 @@
       <c r="C140" s="15">
         <v>237007</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" s="21">
+        <v>6633</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>523</v>
       </c>
@@ -4412,8 +5693,17 @@
       <c r="C141" s="15">
         <v>179840</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" s="21">
+        <v>6634</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>524</v>
       </c>
@@ -4423,8 +5713,17 @@
       <c r="C142" s="15">
         <v>156528</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" s="21">
+        <v>6635</v>
+      </c>
+      <c r="E142" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>525</v>
       </c>
@@ -4434,8 +5733,17 @@
       <c r="C143" s="15">
         <v>100046</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" s="21">
+        <v>6636</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>526</v>
       </c>
@@ -4445,8 +5753,17 @@
       <c r="C144" s="15">
         <v>113388</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="21">
+        <v>7111</v>
+      </c>
+      <c r="E144" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>527</v>
       </c>
@@ -4456,8 +5773,17 @@
       <c r="C145" s="15">
         <v>130479</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="21">
+        <v>7131</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>528</v>
       </c>
@@ -4467,8 +5793,17 @@
       <c r="C146" s="15">
         <v>129087</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="21">
+        <v>7132</v>
+      </c>
+      <c r="E146" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>529</v>
       </c>
@@ -4478,8 +5813,17 @@
       <c r="C147" s="15">
         <v>158746</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="21">
+        <v>7133</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>530</v>
       </c>
@@ -4489,8 +5833,17 @@
       <c r="C148" s="15">
         <v>80830</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="21">
+        <v>7134</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>531</v>
       </c>
@@ -4500,8 +5853,17 @@
       <c r="C149" s="15">
         <v>61578</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="21">
+        <v>7135</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>532</v>
       </c>
@@ -4511,8 +5873,17 @@
       <c r="C150" s="15">
         <v>214786</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="21">
+        <v>7137</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>533</v>
       </c>
@@ -4522,8 +5893,17 @@
       <c r="C151" s="15">
         <v>183131</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="21">
+        <v>7138</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>534</v>
       </c>
@@ -4533,8 +5913,17 @@
       <c r="C152" s="15">
         <v>103401</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="21">
+        <v>7140</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>535</v>
       </c>
@@ -4544,8 +5933,17 @@
       <c r="C153" s="15">
         <v>122574</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="21">
+        <v>7141</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>536</v>
       </c>
@@ -4555,8 +5953,17 @@
       <c r="C154" s="15">
         <v>202830</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="21">
+        <v>7143</v>
+      </c>
+      <c r="E154" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>537</v>
       </c>
@@ -4566,8 +5973,17 @@
       <c r="C155" s="15">
         <v>110674</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="21">
+        <v>7211</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F155" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>538</v>
       </c>
@@ -4577,8 +5993,17 @@
       <c r="C156" s="15">
         <v>112685</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="21">
+        <v>7231</v>
+      </c>
+      <c r="E156" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>539</v>
       </c>
@@ -4588,8 +6013,17 @@
       <c r="C157" s="15">
         <v>100055</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="21">
+        <v>7232</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>540</v>
       </c>
@@ -4599,8 +6033,17 @@
       <c r="C158" s="15">
         <v>60491</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="21">
+        <v>7233</v>
+      </c>
+      <c r="E158" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>541</v>
       </c>
@@ -4610,8 +6053,17 @@
       <c r="C159" s="15">
         <v>150533</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="21">
+        <v>7235</v>
+      </c>
+      <c r="E159" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>542</v>
       </c>
@@ -4621,8 +6073,17 @@
       <c r="C160" s="15">
         <v>48750</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" s="21">
+        <v>7311</v>
+      </c>
+      <c r="E160" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>543</v>
       </c>
@@ -4632,8 +6093,17 @@
       <c r="C161" s="15">
         <v>99662</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="21">
+        <v>7312</v>
+      </c>
+      <c r="E161" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F161" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>544</v>
       </c>
@@ -4643,8 +6113,17 @@
       <c r="C162" s="15">
         <v>46685</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="21">
+        <v>7313</v>
+      </c>
+      <c r="E162" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>545</v>
       </c>
@@ -4654,8 +6133,17 @@
       <c r="C163" s="15">
         <v>172557</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="21">
+        <v>7314</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>546</v>
       </c>
@@ -4665,8 +6153,17 @@
       <c r="C164" s="15">
         <v>217123</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="21">
+        <v>7315</v>
+      </c>
+      <c r="E164" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>547</v>
       </c>
@@ -4676,8 +6173,17 @@
       <c r="C165" s="15">
         <v>53306</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="21">
+        <v>7316</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>548</v>
       </c>
@@ -4687,8 +6193,17 @@
       <c r="C166" s="15">
         <v>40176</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" s="21">
+        <v>7317</v>
+      </c>
+      <c r="E166" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>549</v>
       </c>
@@ -4698,8 +6213,17 @@
       <c r="C167" s="15">
         <v>50741</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" s="21">
+        <v>7318</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F167" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>550</v>
       </c>
@@ -4709,8 +6233,17 @@
       <c r="C168" s="15">
         <v>83459</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" s="21">
+        <v>7319</v>
+      </c>
+      <c r="E168" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>551</v>
       </c>
@@ -4720,8 +6253,17 @@
       <c r="C169" s="15">
         <v>34001</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" s="21">
+        <v>7320</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F169" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>552</v>
       </c>
@@ -4731,8 +6273,17 @@
       <c r="C170" s="15">
         <v>130715</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" s="21">
+        <v>7331</v>
+      </c>
+      <c r="E170" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F170" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>553</v>
       </c>
@@ -4742,8 +6293,17 @@
       <c r="C171" s="15">
         <v>133004</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" s="21">
+        <v>7332</v>
+      </c>
+      <c r="E171" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F171" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>554</v>
       </c>
@@ -4753,8 +6313,17 @@
       <c r="C172" s="15">
         <v>75539</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" s="21">
+        <v>7333</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>555</v>
       </c>
@@ -4764,8 +6333,17 @@
       <c r="C173" s="15">
         <v>129006</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" s="21">
+        <v>7334</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F173" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>556</v>
       </c>
@@ -4775,8 +6353,17 @@
       <c r="C174" s="15">
         <v>106320</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" s="21">
+        <v>7335</v>
+      </c>
+      <c r="E174" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F174" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>557</v>
       </c>
@@ -4786,8 +6373,17 @@
       <c r="C175" s="15">
         <v>70105</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" s="21">
+        <v>7336</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F175" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>558</v>
       </c>
@@ -4797,8 +6393,17 @@
       <c r="C176" s="15">
         <v>110783</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" s="21">
+        <v>7337</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F176" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>559</v>
       </c>
@@ -4808,8 +6413,17 @@
       <c r="C177" s="15">
         <v>154754</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" s="21">
+        <v>7338</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F177" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>560</v>
       </c>
@@ -4819,8 +6433,17 @@
       <c r="C178" s="15">
         <v>211525</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" s="21">
+        <v>7339</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F178" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>561</v>
       </c>
@@ -4830,8 +6453,17 @@
       <c r="C179" s="15">
         <v>94912</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" s="21">
+        <v>7340</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F179" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>562</v>
       </c>
@@ -4841,8 +6473,17 @@
       <c r="C180" s="15">
         <v>630305</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" s="21">
+        <v>8111</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F180" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>563</v>
       </c>
@@ -4852,8 +6493,17 @@
       <c r="C181" s="15">
         <v>392898</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" s="21">
+        <v>8115</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F181" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>564</v>
       </c>
@@ -4863,8 +6513,17 @@
       <c r="C182" s="15">
         <v>533617</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" s="21">
+        <v>8116</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F182" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>565</v>
       </c>
@@ -4874,8 +6533,17 @@
       <c r="C183" s="15">
         <v>258781</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" s="21">
+        <v>8117</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F183" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>566</v>
       </c>
@@ -4885,8 +6553,17 @@
       <c r="C184" s="15">
         <v>544971</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" s="21">
+        <v>8118</v>
+      </c>
+      <c r="E184" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F184" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>567</v>
       </c>
@@ -4896,8 +6573,17 @@
       <c r="C185" s="15">
         <v>427286</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" s="21">
+        <v>8119</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F185" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>568</v>
       </c>
@@ -4907,8 +6593,17 @@
       <c r="C186" s="15">
         <v>126458</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" s="21">
+        <v>8121</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F186" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>569</v>
       </c>
@@ -4918,8 +6613,17 @@
       <c r="C187" s="15">
         <v>346363</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" s="21">
+        <v>8125</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F187" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>570</v>
       </c>
@@ -4929,8 +6633,17 @@
       <c r="C188" s="15">
         <v>112765</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" s="21">
+        <v>8126</v>
+      </c>
+      <c r="E188" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F188" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>571</v>
       </c>
@@ -4940,8 +6653,17 @@
       <c r="C189" s="15">
         <v>197860</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" s="21">
+        <v>8127</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F189" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>572</v>
       </c>
@@ -4951,8 +6673,17 @@
       <c r="C190" s="15">
         <v>132684</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" s="21">
+        <v>8128</v>
+      </c>
+      <c r="E190" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F190" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>573</v>
       </c>
@@ -4962,8 +6693,17 @@
       <c r="C191" s="15">
         <v>132812</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" s="21">
+        <v>8135</v>
+      </c>
+      <c r="E191" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F191" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>574</v>
       </c>
@@ -4973,8 +6713,17 @@
       <c r="C192" s="15">
         <v>314294</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" s="21">
+        <v>8136</v>
+      </c>
+      <c r="E192" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F192" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>575</v>
       </c>
@@ -4984,8 +6733,17 @@
       <c r="C193" s="15">
         <v>55449</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" s="21">
+        <v>8211</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F193" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>576</v>
       </c>
@@ -4995,8 +6753,17 @@
       <c r="C194" s="15">
         <v>308436</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" s="21">
+        <v>8212</v>
+      </c>
+      <c r="E194" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F194" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>577</v>
       </c>
@@ -5006,8 +6773,17 @@
       <c r="C195" s="15">
         <v>446852</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" s="21">
+        <v>8215</v>
+      </c>
+      <c r="E195" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F195" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>578</v>
       </c>
@@ -5017,8 +6793,17 @@
       <c r="C196" s="15">
         <v>232091</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" s="21">
+        <v>8216</v>
+      </c>
+      <c r="E196" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F196" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>579</v>
       </c>
@@ -5028,8 +6813,17 @@
       <c r="C197" s="15">
         <v>158741</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" s="21">
+        <v>8221</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F197" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>580</v>
       </c>
@@ -5039,8 +6833,17 @@
       <c r="C198" s="15">
         <v>309721</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" s="21">
+        <v>8222</v>
+      </c>
+      <c r="E198" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F198" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>581</v>
       </c>
@@ -5050,8 +6853,17 @@
       <c r="C199" s="15">
         <v>143797</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" s="21">
+        <v>8225</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F199" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>582</v>
       </c>
@@ -5061,8 +6873,17 @@
       <c r="C200" s="15">
         <v>548233</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" s="21">
+        <v>8226</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F200" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>583</v>
       </c>
@@ -5072,8 +6893,17 @@
       <c r="C201" s="15">
         <v>126016</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" s="21">
+        <v>8231</v>
+      </c>
+      <c r="E201" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F201" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>584</v>
       </c>
@@ -5083,8 +6913,17 @@
       <c r="C202" s="15">
         <v>160149</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" s="21">
+        <v>8235</v>
+      </c>
+      <c r="E202" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F202" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>585</v>
       </c>
@@ -5094,8 +6933,17 @@
       <c r="C203" s="15">
         <v>199752</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" s="21">
+        <v>8236</v>
+      </c>
+      <c r="E203" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F203" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>586</v>
       </c>
@@ -5105,8 +6953,17 @@
       <c r="C204" s="15">
         <v>118364</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" s="21">
+        <v>8237</v>
+      </c>
+      <c r="E204" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F204" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>587</v>
       </c>
@@ -5116,8 +6973,17 @@
       <c r="C205" s="15">
         <v>230940</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" s="21">
+        <v>8311</v>
+      </c>
+      <c r="E205" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F205" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>588</v>
       </c>
@@ -5127,8 +6993,17 @@
       <c r="C206" s="15">
         <v>264867</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206" s="21">
+        <v>8315</v>
+      </c>
+      <c r="E206" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F206" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>589</v>
       </c>
@@ -5138,8 +7013,17 @@
       <c r="C207" s="15">
         <v>166862</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" s="21">
+        <v>8316</v>
+      </c>
+      <c r="E207" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F207" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>590</v>
       </c>
@@ -5149,8 +7033,17 @@
       <c r="C208" s="15">
         <v>432580</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" s="21">
+        <v>8317</v>
+      </c>
+      <c r="E208" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F208" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>591</v>
       </c>
@@ -5160,8 +7053,17 @@
       <c r="C209" s="15">
         <v>140166</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" s="21">
+        <v>8325</v>
+      </c>
+      <c r="E209" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F209" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>592</v>
       </c>
@@ -5171,8 +7073,17 @@
       <c r="C210" s="15">
         <v>212872</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" s="21">
+        <v>8326</v>
+      </c>
+      <c r="E210" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F210" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>593</v>
       </c>
@@ -5182,8 +7093,17 @@
       <c r="C211" s="15">
         <v>141682</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" s="21">
+        <v>8327</v>
+      </c>
+      <c r="E211" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F211" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>594</v>
       </c>
@@ -5193,8 +7113,17 @@
       <c r="C212" s="15">
         <v>286876</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" s="21">
+        <v>8335</v>
+      </c>
+      <c r="E212" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F212" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>595</v>
       </c>
@@ -5204,8 +7133,17 @@
       <c r="C213" s="15">
         <v>228842</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213" s="21">
+        <v>8336</v>
+      </c>
+      <c r="E213" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F213" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>596</v>
       </c>
@@ -5215,8 +7153,17 @@
       <c r="C214" s="15">
         <v>171237</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" s="21">
+        <v>8337</v>
+      </c>
+      <c r="E214" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F214" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>597</v>
       </c>
@@ -5226,8 +7173,17 @@
       <c r="C215" s="15">
         <v>287497</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" s="21">
+        <v>8415</v>
+      </c>
+      <c r="E215" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F215" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>598</v>
       </c>
@@ -5237,8 +7193,17 @@
       <c r="C216" s="15">
         <v>228471</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216" s="21">
+        <v>8416</v>
+      </c>
+      <c r="E216" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F216" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>599</v>
       </c>
@@ -5248,8 +7213,17 @@
       <c r="C217" s="15">
         <v>189862</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217" s="21">
+        <v>8417</v>
+      </c>
+      <c r="E217" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F217" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>600</v>
       </c>
@@ -5259,8 +7233,17 @@
       <c r="C218" s="15">
         <v>126405</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218" s="21">
+        <v>8421</v>
+      </c>
+      <c r="E218" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F218" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>601</v>
       </c>
@@ -5270,8 +7253,17 @@
       <c r="C219" s="15">
         <v>198204</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219" s="21">
+        <v>8425</v>
+      </c>
+      <c r="E219" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F219" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>602</v>
       </c>
@@ -5281,8 +7273,17 @@
       <c r="C220" s="15">
         <v>202250</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220" s="21">
+        <v>8426</v>
+      </c>
+      <c r="E220" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F220" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>603</v>
       </c>
@@ -5292,8 +7293,17 @@
       <c r="C221" s="15">
         <v>217901</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221" s="21">
+        <v>8435</v>
+      </c>
+      <c r="E221" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F221" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>604</v>
       </c>
@@ -5303,8 +7313,17 @@
       <c r="C222" s="15">
         <v>285888</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222" s="21">
+        <v>8436</v>
+      </c>
+      <c r="E222" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F222" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
         <v>605</v>
       </c>
@@ -5314,8 +7333,17 @@
       <c r="C223" s="15">
         <v>130946</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223" s="21">
+        <v>8437</v>
+      </c>
+      <c r="E223" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F223" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>606</v>
       </c>
@@ -5325,8 +7353,17 @@
       <c r="C224" s="15">
         <v>136952</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224" s="21">
+        <v>9161</v>
+      </c>
+      <c r="E224" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F224" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>607</v>
       </c>
@@ -5336,8 +7373,17 @@
       <c r="C225" s="15">
         <v>1488202</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" s="21">
+        <v>9162</v>
+      </c>
+      <c r="E225" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F225" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>608</v>
       </c>
@@ -5347,8 +7393,17 @@
       <c r="C226" s="15">
         <v>63591</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226" s="21">
+        <v>9163</v>
+      </c>
+      <c r="E226" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F226" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>609</v>
       </c>
@@ -5358,8 +7413,17 @@
       <c r="C227" s="15">
         <v>111654</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227" s="21">
+        <v>9171</v>
+      </c>
+      <c r="E227" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F227" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>610</v>
       </c>
@@ -5369,8 +7433,17 @@
       <c r="C228" s="15">
         <v>106327</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228" s="21">
+        <v>9172</v>
+      </c>
+      <c r="E228" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F228" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>611</v>
       </c>
@@ -5380,8 +7453,17 @@
       <c r="C229" s="15">
         <v>128212</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229" s="21">
+        <v>9173</v>
+      </c>
+      <c r="E229" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F229" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>612</v>
       </c>
@@ -5391,8 +7473,17 @@
       <c r="C230" s="15">
         <v>155117</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230" s="21">
+        <v>9174</v>
+      </c>
+      <c r="E230" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F230" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>613</v>
       </c>
@@ -5402,8 +7493,17 @@
       <c r="C231" s="15">
         <v>144091</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231" s="21">
+        <v>9175</v>
+      </c>
+      <c r="E231" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F231" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>614</v>
       </c>
@@ -5413,8 +7513,17 @@
       <c r="C232" s="15">
         <v>133169</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232" s="21">
+        <v>9176</v>
+      </c>
+      <c r="E232" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F232" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>615</v>
       </c>
@@ -5424,8 +7533,17 @@
       <c r="C233" s="15">
         <v>138891</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233" s="21">
+        <v>9177</v>
+      </c>
+      <c r="E233" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F233" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>616</v>
       </c>
@@ -5435,8 +7553,17 @@
       <c r="C234" s="15">
         <v>180313</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234" s="21">
+        <v>9178</v>
+      </c>
+      <c r="E234" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F234" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>617</v>
       </c>
@@ -5446,8 +7573,17 @@
       <c r="C235" s="15">
         <v>218740</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235" s="21">
+        <v>9179</v>
+      </c>
+      <c r="E235" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F235" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>618</v>
       </c>
@@ -5457,8 +7593,17 @@
       <c r="C236" s="15">
         <v>88279</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236" s="21">
+        <v>9180</v>
+      </c>
+      <c r="E236" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F236" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>619</v>
       </c>
@@ -5468,8 +7613,17 @@
       <c r="C237" s="15">
         <v>121019</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237" s="21">
+        <v>9181</v>
+      </c>
+      <c r="E237" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F237" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>620</v>
       </c>
@@ -5479,8 +7633,17 @@
       <c r="C238" s="15">
         <v>100183</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238" s="21">
+        <v>9182</v>
+      </c>
+      <c r="E238" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F238" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>621</v>
       </c>
@@ -5490,8 +7653,17 @@
       <c r="C239" s="15">
         <v>116483</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239" s="21">
+        <v>9183</v>
+      </c>
+      <c r="E239" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F239" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>622</v>
       </c>
@@ -5501,8 +7673,17 @@
       <c r="C240" s="15">
         <v>349685</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240" s="21">
+        <v>9184</v>
+      </c>
+      <c r="E240" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F240" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>623</v>
       </c>
@@ -5512,8 +7693,17 @@
       <c r="C241" s="15">
         <v>97730</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241" s="21">
+        <v>9185</v>
+      </c>
+      <c r="E241" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F241" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>624</v>
       </c>
@@ -5523,8 +7713,17 @@
       <c r="C242" s="15">
         <v>129128</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242" s="21">
+        <v>9186</v>
+      </c>
+      <c r="E242" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F242" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>625</v>
       </c>
@@ -5534,8 +7733,17 @@
       <c r="C243" s="15">
         <v>261721</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243" s="21">
+        <v>9187</v>
+      </c>
+      <c r="E243" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F243" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>626</v>
       </c>
@@ -5545,8 +7753,17 @@
       <c r="C244" s="15">
         <v>136610</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244" s="21">
+        <v>9188</v>
+      </c>
+      <c r="E244" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F244" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>627</v>
       </c>
@@ -5556,8 +7773,17 @@
       <c r="C245" s="15">
         <v>177485</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245" s="21">
+        <v>9189</v>
+      </c>
+      <c r="E245" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F245" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>628</v>
       </c>
@@ -5567,8 +7793,17 @@
       <c r="C246" s="15">
         <v>136134</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246" s="21">
+        <v>9190</v>
+      </c>
+      <c r="E246" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F246" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>629</v>
       </c>
@@ -5578,8 +7813,17 @@
       <c r="C247" s="15">
         <v>73065</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247" s="21">
+        <v>9261</v>
+      </c>
+      <c r="E247" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F247" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>630</v>
       </c>
@@ -5589,8 +7833,17 @@
       <c r="C248" s="15">
         <v>52415</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248" s="21">
+        <v>9262</v>
+      </c>
+      <c r="E248" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F248" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>631</v>
       </c>
@@ -5600,8 +7853,17 @@
       <c r="C249" s="15">
         <v>47612</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249" s="21">
+        <v>9263</v>
+      </c>
+      <c r="E249" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F249" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>632</v>
       </c>
@@ -5611,8 +7873,17 @@
       <c r="C250" s="15">
         <v>119479</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250" s="21">
+        <v>9271</v>
+      </c>
+      <c r="E250" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F250" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>633</v>
       </c>
@@ -5622,8 +7893,17 @@
       <c r="C251" s="15">
         <v>78355</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251" s="21">
+        <v>9272</v>
+      </c>
+      <c r="E251" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F251" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>634</v>
       </c>
@@ -5633,8 +7913,17 @@
       <c r="C252" s="15">
         <v>123390</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252" s="21">
+        <v>9273</v>
+      </c>
+      <c r="E252" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F252" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>635</v>
       </c>
@@ -5644,8 +7933,17 @@
       <c r="C253" s="15">
         <v>161191</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253" s="21">
+        <v>9274</v>
+      </c>
+      <c r="E253" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F253" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>636</v>
       </c>
@@ -5655,8 +7953,17 @@
       <c r="C254" s="15">
         <v>193454</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="D254" s="21">
+        <v>9275</v>
+      </c>
+      <c r="E254" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F254" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>637</v>
       </c>
@@ -5666,8 +7973,17 @@
       <c r="C255" s="15">
         <v>77313</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255" s="21">
+        <v>9276</v>
+      </c>
+      <c r="E255" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F255" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>638</v>
       </c>
@@ -5677,8 +7993,17 @@
       <c r="C256" s="15">
         <v>121800</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256" s="21">
+        <v>9277</v>
+      </c>
+      <c r="E256" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F256" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>639</v>
       </c>
@@ -5688,8 +8013,17 @@
       <c r="C257" s="15">
         <v>101745</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257" s="21">
+        <v>9278</v>
+      </c>
+      <c r="E257" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F257" s="25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>640</v>
       </c>
@@ -5699,8 +8033,17 @@
       <c r="C258" s="15">
         <v>97244</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="D258" s="21">
+        <v>9279</v>
+      </c>
+      <c r="E258" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F258" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>641</v>
       </c>
@@ -5710,8 +8053,17 @@
       <c r="C259" s="15">
         <v>42052</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259" s="21">
+        <v>9361</v>
+      </c>
+      <c r="E259" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F259" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>642</v>
       </c>
@@ -5721,8 +8073,17 @@
       <c r="C260" s="15">
         <v>152270</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="D260" s="21">
+        <v>9362</v>
+      </c>
+      <c r="E260" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F260" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>643</v>
       </c>
@@ -5732,8 +8093,17 @@
       <c r="C261" s="15">
         <v>42535</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="D261" s="21">
+        <v>9363</v>
+      </c>
+      <c r="E261" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F261" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>644</v>
       </c>
@@ -5743,8 +8113,17 @@
       <c r="C262" s="15">
         <v>102998</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="D262" s="21">
+        <v>9371</v>
+      </c>
+      <c r="E262" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F262" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>645</v>
       </c>
@@ -5754,8 +8133,17 @@
       <c r="C263" s="15">
         <v>128094</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="D263" s="21">
+        <v>9372</v>
+      </c>
+      <c r="E263" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F263" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>646</v>
       </c>
@@ -5765,8 +8153,17 @@
       <c r="C264" s="15">
         <v>135225</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="D264" s="21">
+        <v>9373</v>
+      </c>
+      <c r="E264" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F264" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>647</v>
       </c>
@@ -5776,8 +8173,17 @@
       <c r="C265" s="15">
         <v>94645</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="D265" s="21">
+        <v>9374</v>
+      </c>
+      <c r="E265" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F265" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>648</v>
       </c>
@@ -5787,8 +8193,17 @@
       <c r="C266" s="15">
         <v>194275</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="D266" s="21">
+        <v>9375</v>
+      </c>
+      <c r="E266" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F266" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>649</v>
       </c>
@@ -5798,8 +8213,17 @@
       <c r="C267" s="15">
         <v>148477</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="D267" s="21">
+        <v>9376</v>
+      </c>
+      <c r="E267" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F267" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>650</v>
       </c>
@@ -5809,8 +8233,17 @@
       <c r="C268" s="15">
         <v>71696</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="D268" s="21">
+        <v>9377</v>
+      </c>
+      <c r="E268" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F268" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>651</v>
       </c>
@@ -5820,8 +8253,17 @@
       <c r="C269" s="15">
         <v>76674</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="D269" s="21">
+        <v>9461</v>
+      </c>
+      <c r="E269" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F269" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>652</v>
       </c>
@@ -5831,8 +8273,17 @@
       <c r="C270" s="15">
         <v>74048</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="D270" s="21">
+        <v>9462</v>
+      </c>
+      <c r="E270" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F270" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>653</v>
       </c>
@@ -5842,8 +8293,17 @@
       <c r="C271" s="15">
         <v>40842</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="D271" s="21">
+        <v>9463</v>
+      </c>
+      <c r="E271" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F271" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>654</v>
       </c>
@@ -5853,8 +8313,17 @@
       <c r="C272" s="15">
         <v>45173</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="D272" s="21">
+        <v>9464</v>
+      </c>
+      <c r="E272" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F272" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>655</v>
       </c>
@@ -5864,8 +8333,17 @@
       <c r="C273" s="15">
         <v>147497</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="D273" s="21">
+        <v>9471</v>
+      </c>
+      <c r="E273" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F273" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>656</v>
       </c>
@@ -5875,8 +8353,17 @@
       <c r="C274" s="15">
         <v>103679</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="D274" s="21">
+        <v>9472</v>
+      </c>
+      <c r="E274" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F274" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>657</v>
       </c>
@@ -5886,8 +8373,17 @@
       <c r="C275" s="15">
         <v>86571</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="D275" s="21">
+        <v>9473</v>
+      </c>
+      <c r="E275" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F275" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>658</v>
       </c>
@@ -5897,8 +8393,17 @@
       <c r="C276" s="15">
         <v>116600</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="D276" s="21">
+        <v>9474</v>
+      </c>
+      <c r="E276" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F276" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>659</v>
       </c>
@@ -5908,8 +8413,17 @@
       <c r="C277" s="15">
         <v>94522</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="D277" s="21">
+        <v>9475</v>
+      </c>
+      <c r="E277" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F277" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>660</v>
       </c>
@@ -5919,8 +8433,17 @@
       <c r="C278" s="15">
         <v>66355</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
+      <c r="D278" s="21">
+        <v>9476</v>
+      </c>
+      <c r="E278" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F278" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>661</v>
       </c>
@@ -5930,8 +8453,17 @@
       <c r="C279" s="15">
         <v>71428</v>
       </c>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="D279" s="21">
+        <v>9477</v>
+      </c>
+      <c r="E279" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F279" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>662</v>
       </c>
@@ -5941,8 +8473,17 @@
       <c r="C280" s="15">
         <v>66722</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="D280" s="21">
+        <v>9478</v>
+      </c>
+      <c r="E280" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F280" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>663</v>
       </c>
@@ -5952,8 +8493,17 @@
       <c r="C281" s="15">
         <v>71974</v>
       </c>
-    </row>
-    <row r="282" spans="1:3">
+      <c r="D281" s="21">
+        <v>9479</v>
+      </c>
+      <c r="E281" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F281" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>664</v>
       </c>
@@ -5963,8 +8513,17 @@
       <c r="C282" s="15">
         <v>41681</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="D282" s="21">
+        <v>9561</v>
+      </c>
+      <c r="E282" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F282" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>665</v>
       </c>
@@ -5974,8 +8533,17 @@
       <c r="C283" s="15">
         <v>112385</v>
       </c>
-    </row>
-    <row r="284" spans="1:3">
+      <c r="D283" s="21">
+        <v>9562</v>
+      </c>
+      <c r="E283" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F283" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>666</v>
       </c>
@@ -5985,8 +8553,17 @@
       <c r="C284" s="15">
         <v>128223</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="D284" s="21">
+        <v>9563</v>
+      </c>
+      <c r="E284" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F284" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>667</v>
       </c>
@@ -5996,8 +8573,17 @@
       <c r="C285" s="15">
         <v>515543</v>
       </c>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="D285" s="21">
+        <v>9564</v>
+      </c>
+      <c r="E285" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F285" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>668</v>
       </c>
@@ -6007,8 +8593,17 @@
       <c r="C286" s="15">
         <v>41056</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="D286" s="21">
+        <v>9565</v>
+      </c>
+      <c r="E286" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F286" s="25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>669</v>
       </c>
@@ -6018,8 +8613,17 @@
       <c r="C287" s="15">
         <v>185316</v>
       </c>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="D287" s="21">
+        <v>9571</v>
+      </c>
+      <c r="E287" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F287" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>670</v>
       </c>
@@ -6029,8 +8633,17 @@
       <c r="C288" s="15">
         <v>138105</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="D288" s="21">
+        <v>9572</v>
+      </c>
+      <c r="E288" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F288" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>671</v>
       </c>
@@ -6040,8 +8653,17 @@
       <c r="C289" s="15">
         <v>118695</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="D289" s="21">
+        <v>9573</v>
+      </c>
+      <c r="E289" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F289" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>672</v>
       </c>
@@ -6051,8 +8673,17 @@
       <c r="C290" s="15">
         <v>171143</v>
       </c>
-    </row>
-    <row r="291" spans="1:3">
+      <c r="D290" s="21">
+        <v>9574</v>
+      </c>
+      <c r="E290" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F290" s="25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>673</v>
       </c>
@@ -6062,8 +8693,17 @@
       <c r="C291" s="15">
         <v>101272</v>
       </c>
-    </row>
-    <row r="292" spans="1:3">
+      <c r="D291" s="21">
+        <v>9575</v>
+      </c>
+      <c r="E291" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F291" s="25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>674</v>
       </c>
@@ -6073,8 +8713,17 @@
       <c r="C292" s="15">
         <v>127168</v>
       </c>
-    </row>
-    <row r="293" spans="1:3">
+      <c r="D292" s="21">
+        <v>9576</v>
+      </c>
+      <c r="E292" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F292" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>675</v>
       </c>
@@ -6084,8 +8733,17 @@
       <c r="C293" s="15">
         <v>95117</v>
       </c>
-    </row>
-    <row r="294" spans="1:3">
+      <c r="D293" s="21">
+        <v>9577</v>
+      </c>
+      <c r="E293" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F293" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>676</v>
       </c>
@@ -6095,8 +8753,17 @@
       <c r="C294" s="15">
         <v>70858</v>
       </c>
-    </row>
-    <row r="295" spans="1:3">
+      <c r="D294" s="21">
+        <v>9661</v>
+      </c>
+      <c r="E294" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F294" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>677</v>
       </c>
@@ -6106,8 +8773,17 @@
       <c r="C295" s="15">
         <v>53319</v>
       </c>
-    </row>
-    <row r="296" spans="1:3">
+      <c r="D295" s="21">
+        <v>9662</v>
+      </c>
+      <c r="E295" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F295" s="25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>678</v>
       </c>
@@ -6117,8 +8793,17 @@
       <c r="C296" s="15">
         <v>126954</v>
       </c>
-    </row>
-    <row r="297" spans="1:3">
+      <c r="D296" s="21">
+        <v>9663</v>
+      </c>
+      <c r="E296" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F296" s="25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>679</v>
       </c>
@@ -6128,8 +8813,17 @@
       <c r="C297" s="15">
         <v>174658</v>
       </c>
-    </row>
-    <row r="298" spans="1:3">
+      <c r="D297" s="21">
+        <v>9671</v>
+      </c>
+      <c r="E297" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F297" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>680</v>
       </c>
@@ -6139,8 +8833,17 @@
       <c r="C298" s="15">
         <v>103169</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
+      <c r="D298" s="21">
+        <v>9672</v>
+      </c>
+      <c r="E298" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F298" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>681</v>
       </c>
@@ -6150,8 +8853,17 @@
       <c r="C299" s="15">
         <v>79510</v>
       </c>
-    </row>
-    <row r="300" spans="1:3">
+      <c r="D299" s="21">
+        <v>9673</v>
+      </c>
+      <c r="E299" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F299" s="25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>682</v>
       </c>
@@ -6161,8 +8873,17 @@
       <c r="C300" s="15">
         <v>84275</v>
       </c>
-    </row>
-    <row r="301" spans="1:3">
+      <c r="D300" s="21">
+        <v>9674</v>
+      </c>
+      <c r="E300" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F300" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" t="s">
         <v>683</v>
       </c>
@@ -6172,8 +8893,17 @@
       <c r="C301" s="15">
         <v>91696</v>
       </c>
-    </row>
-    <row r="302" spans="1:3">
+      <c r="D301" s="21">
+        <v>9675</v>
+      </c>
+      <c r="E301" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F301" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>684</v>
       </c>
@@ -6183,8 +8913,17 @@
       <c r="C302" s="15">
         <v>128743</v>
       </c>
-    </row>
-    <row r="303" spans="1:3">
+      <c r="D302" s="21">
+        <v>9676</v>
+      </c>
+      <c r="E302" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F302" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" t="s">
         <v>685</v>
       </c>
@@ -6194,8 +8933,17 @@
       <c r="C303" s="15">
         <v>125976</v>
       </c>
-    </row>
-    <row r="304" spans="1:3">
+      <c r="D303" s="21">
+        <v>9677</v>
+      </c>
+      <c r="E303" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F303" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" t="s">
         <v>686</v>
       </c>
@@ -6205,8 +8953,17 @@
       <c r="C304" s="15">
         <v>115652</v>
       </c>
-    </row>
-    <row r="305" spans="1:3">
+      <c r="D304" s="21">
+        <v>9678</v>
+      </c>
+      <c r="E304" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F304" s="25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>687</v>
       </c>
@@ -6216,8 +8973,17 @@
       <c r="C305" s="15">
         <v>162697</v>
       </c>
-    </row>
-    <row r="306" spans="1:3">
+      <c r="D305" s="21">
+        <v>9679</v>
+      </c>
+      <c r="E305" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F305" s="25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>688</v>
       </c>
@@ -6227,8 +8993,17 @@
       <c r="C306" s="15">
         <v>295830</v>
       </c>
-    </row>
-    <row r="307" spans="1:3">
+      <c r="D306" s="21">
+        <v>9761</v>
+      </c>
+      <c r="E306" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F306" s="25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" t="s">
         <v>689</v>
       </c>
@@ -6238,8 +9013,17 @@
       <c r="C307" s="15">
         <v>44662</v>
       </c>
-    </row>
-    <row r="308" spans="1:3">
+      <c r="D307" s="21">
+        <v>9762</v>
+      </c>
+      <c r="E307" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F307" s="25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>690</v>
       </c>
@@ -6249,8 +9033,17 @@
       <c r="C308" s="15">
         <v>68940</v>
       </c>
-    </row>
-    <row r="309" spans="1:3">
+      <c r="D308" s="21">
+        <v>9763</v>
+      </c>
+      <c r="E308" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F308" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>691</v>
       </c>
@@ -6260,8 +9053,17 @@
       <c r="C309" s="15">
         <v>44360</v>
       </c>
-    </row>
-    <row r="310" spans="1:3">
+      <c r="D309" s="21">
+        <v>9764</v>
+      </c>
+      <c r="E309" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F309" s="25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>692</v>
       </c>
@@ -6271,8 +9073,17 @@
       <c r="C310" s="15">
         <v>135024</v>
       </c>
-    </row>
-    <row r="311" spans="1:3">
+      <c r="D310" s="21">
+        <v>9771</v>
+      </c>
+      <c r="E310" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F310" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>693</v>
       </c>
@@ -6282,8 +9093,17 @@
       <c r="C311" s="15">
         <v>255900</v>
       </c>
-    </row>
-    <row r="312" spans="1:3">
+      <c r="D311" s="21">
+        <v>9772</v>
+      </c>
+      <c r="E311" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F311" s="25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>694</v>
       </c>
@@ -6293,8 +9113,17 @@
       <c r="C312" s="15">
         <v>97172</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
+      <c r="D312" s="21">
+        <v>9773</v>
+      </c>
+      <c r="E312" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F312" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>695</v>
       </c>
@@ -6304,8 +9133,17 @@
       <c r="C313" s="15">
         <v>127342</v>
       </c>
-    </row>
-    <row r="314" spans="1:3">
+      <c r="D313" s="21">
+        <v>9774</v>
+      </c>
+      <c r="E313" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F313" s="25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>696</v>
       </c>
@@ -6315,8 +9153,17 @@
       <c r="C314" s="15">
         <v>175823</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
+      <c r="D314" s="21">
+        <v>9775</v>
+      </c>
+      <c r="E314" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F314" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>697</v>
       </c>
@@ -6326,8 +9173,17 @@
       <c r="C315" s="15">
         <v>82085</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
+      <c r="D315" s="21">
+        <v>9776</v>
+      </c>
+      <c r="E315" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F315" s="25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>698</v>
       </c>
@@ -6337,8 +9193,17 @@
       <c r="C316" s="15">
         <v>141907</v>
       </c>
-    </row>
-    <row r="317" spans="1:3">
+      <c r="D316" s="21">
+        <v>9777</v>
+      </c>
+      <c r="E316" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F316" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>699</v>
       </c>
@@ -6348,8 +9213,17 @@
       <c r="C317" s="15">
         <v>146164</v>
       </c>
-    </row>
-    <row r="318" spans="1:3">
+      <c r="D317" s="21">
+        <v>9778</v>
+      </c>
+      <c r="E317" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F317" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>700</v>
       </c>
@@ -6359,8 +9233,17 @@
       <c r="C318" s="15">
         <v>134324</v>
       </c>
-    </row>
-    <row r="319" spans="1:3">
+      <c r="D318" s="21">
+        <v>9779</v>
+      </c>
+      <c r="E318" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F318" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>701</v>
       </c>
@@ -6370,8 +9253,17 @@
       <c r="C319" s="15">
         <v>156308</v>
       </c>
-    </row>
-    <row r="320" spans="1:3">
+      <c r="D319" s="21">
+        <v>9780</v>
+      </c>
+      <c r="E319" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F319" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>702</v>
       </c>
@@ -6381,8 +9273,17 @@
       <c r="C320" s="15">
         <v>327502</v>
       </c>
-    </row>
-    <row r="321" spans="1:3">
+      <c r="D320" s="21">
+        <v>10041</v>
+      </c>
+      <c r="E320" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="F320" s="25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>703</v>
       </c>
@@ -6392,8 +9293,17 @@
       <c r="C321" s="15">
         <v>103471</v>
       </c>
-    </row>
-    <row r="322" spans="1:3">
+      <c r="D321" s="21">
+        <v>10042</v>
+      </c>
+      <c r="E321" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F321" s="25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>704</v>
       </c>
@@ -6403,8 +9313,17 @@
       <c r="C322" s="15">
         <v>131172</v>
       </c>
-    </row>
-    <row r="323" spans="1:3">
+      <c r="D322" s="21">
+        <v>10043</v>
+      </c>
+      <c r="E322" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F322" s="25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>705</v>
       </c>
@@ -6414,8 +9333,17 @@
       <c r="C323" s="15">
         <v>193732</v>
       </c>
-    </row>
-    <row r="324" spans="1:3">
+      <c r="D323" s="21">
+        <v>10044</v>
+      </c>
+      <c r="E323" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F323" s="25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>706</v>
       </c>
@@ -6425,8 +9353,17 @@
       <c r="C324" s="15">
         <v>141656</v>
       </c>
-    </row>
-    <row r="325" spans="1:3">
+      <c r="D324" s="21">
+        <v>10045</v>
+      </c>
+      <c r="E324" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F324" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>707</v>
       </c>
@@ -6436,8 +9373,17 @@
       <c r="C325" s="15">
         <v>86458</v>
       </c>
-    </row>
-    <row r="326" spans="1:3">
+      <c r="D325" s="21">
+        <v>10046</v>
+      </c>
+      <c r="E325" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F325" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>708</v>
       </c>
@@ -6447,48 +9393,66 @@
       <c r="C326" s="18">
         <v>383360</v>
       </c>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="D326" s="21">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>709</v>
       </c>
       <c r="C327" s="19">
         <v>289787</v>
       </c>
-    </row>
-    <row r="328" spans="1:3">
+      <c r="D327" s="21">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>710</v>
       </c>
       <c r="C328" s="19">
         <v>410716</v>
       </c>
-    </row>
-    <row r="329" spans="1:3">
+      <c r="D328" s="21">
+        <v>11003</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>711</v>
       </c>
       <c r="C329" s="19">
         <v>341392</v>
       </c>
-    </row>
-    <row r="330" spans="1:3">
+      <c r="D329" s="21">
+        <v>11004</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>712</v>
       </c>
       <c r="C330" s="19">
         <v>245527</v>
       </c>
-    </row>
-    <row r="331" spans="1:3">
+      <c r="D330" s="21">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>713</v>
       </c>
       <c r="C331" s="19">
         <v>308840</v>
       </c>
-    </row>
-    <row r="332" spans="1:3">
+      <c r="D331" s="21">
+        <v>11006</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>714</v>
       </c>
@@ -6496,48 +9460,68 @@
       <c r="C332" s="17">
         <v>349539</v>
       </c>
-    </row>
-    <row r="333" spans="1:3">
+      <c r="D332" s="28">
+        <v>11007</v>
+      </c>
+      <c r="E332" s="27"/>
+      <c r="F332" s="25"/>
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>715</v>
       </c>
       <c r="C333" s="19">
         <v>327945</v>
       </c>
-    </row>
-    <row r="334" spans="1:3">
+      <c r="D333" s="28">
+        <v>11008</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>716</v>
       </c>
       <c r="C334" s="19">
         <v>276165</v>
       </c>
-    </row>
-    <row r="335" spans="1:3">
+      <c r="D334" s="28">
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>717</v>
       </c>
       <c r="C335" s="19">
         <v>273731</v>
       </c>
-    </row>
-    <row r="336" spans="1:3">
+      <c r="D335" s="28">
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>718</v>
       </c>
       <c r="C336" s="19">
         <v>296837</v>
       </c>
-    </row>
-    <row r="337" spans="1:3">
+      <c r="D336" s="28">
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
         <v>719</v>
       </c>
       <c r="C337" s="19">
         <v>266123</v>
       </c>
-    </row>
-    <row r="338" spans="1:3">
+      <c r="D337" s="28">
+        <v>11012</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
       <c r="A338" t="s">
         <v>720</v>
       </c>
@@ -6547,8 +9531,17 @@
       <c r="C338" s="15">
         <v>72040</v>
       </c>
-    </row>
-    <row r="339" spans="1:3">
+      <c r="D338" s="21">
+        <v>12051</v>
+      </c>
+      <c r="E338" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F338" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339" t="s">
         <v>721</v>
       </c>
@@ -6558,8 +9551,17 @@
       <c r="C339" s="15">
         <v>98693</v>
       </c>
-    </row>
-    <row r="340" spans="1:3">
+      <c r="D339" s="21">
+        <v>12052</v>
+      </c>
+      <c r="E339" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F339" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340" t="s">
         <v>722</v>
       </c>
@@ -6569,8 +9571,17 @@
       <c r="C340" s="15">
         <v>57015</v>
       </c>
-    </row>
-    <row r="341" spans="1:3">
+      <c r="D340" s="21">
+        <v>12053</v>
+      </c>
+      <c r="E340" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F340" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341" t="s">
         <v>723</v>
       </c>
@@ -6580,8 +9591,17 @@
       <c r="C341" s="15">
         <v>182112</v>
       </c>
-    </row>
-    <row r="342" spans="1:3">
+      <c r="D341" s="21">
+        <v>12054</v>
+      </c>
+      <c r="E341" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F341" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342" t="s">
         <v>724</v>
       </c>
@@ -6591,8 +9611,17 @@
       <c r="C342" s="15">
         <v>187343</v>
       </c>
-    </row>
-    <row r="343" spans="1:3">
+      <c r="D342" s="21">
+        <v>12060</v>
+      </c>
+      <c r="E342" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F342" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343" t="s">
         <v>725</v>
       </c>
@@ -6602,8 +9631,17 @@
       <c r="C343" s="15">
         <v>173316</v>
       </c>
-    </row>
-    <row r="344" spans="1:3">
+      <c r="D343" s="21">
+        <v>12061</v>
+      </c>
+      <c r="E343" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F343" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344" t="s">
         <v>726</v>
       </c>
@@ -6613,8 +9651,17 @@
       <c r="C344" s="15">
         <v>101085</v>
       </c>
-    </row>
-    <row r="345" spans="1:3">
+      <c r="D344" s="21">
+        <v>12062</v>
+      </c>
+      <c r="E344" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F344" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
       <c r="A345" t="s">
         <v>727</v>
       </c>
@@ -6624,8 +9671,17 @@
       <c r="C345" s="15">
         <v>164693</v>
       </c>
-    </row>
-    <row r="346" spans="1:3">
+      <c r="D345" s="21">
+        <v>12063</v>
+      </c>
+      <c r="E345" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F345" s="25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346" t="s">
         <v>728</v>
       </c>
@@ -6635,8 +9691,17 @@
       <c r="C346" s="15">
         <v>197195</v>
       </c>
-    </row>
-    <row r="347" spans="1:3">
+      <c r="D346" s="21">
+        <v>12064</v>
+      </c>
+      <c r="E346" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F346" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
       <c r="A347" t="s">
         <v>729</v>
       </c>
@@ -6646,8 +9711,17 @@
       <c r="C347" s="15">
         <v>214234</v>
       </c>
-    </row>
-    <row r="348" spans="1:3">
+      <c r="D347" s="21">
+        <v>12065</v>
+      </c>
+      <c r="E347" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F347" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
       <c r="A348" t="s">
         <v>730</v>
       </c>
@@ -6657,8 +9731,17 @@
       <c r="C348" s="15">
         <v>108396</v>
       </c>
-    </row>
-    <row r="349" spans="1:3">
+      <c r="D348" s="21">
+        <v>12066</v>
+      </c>
+      <c r="E348" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F348" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
       <c r="A349" t="s">
         <v>731</v>
       </c>
@@ -6668,8 +9751,17 @@
       <c r="C349" s="15">
         <v>179276</v>
       </c>
-    </row>
-    <row r="350" spans="1:3">
+      <c r="D349" s="21">
+        <v>12067</v>
+      </c>
+      <c r="E349" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F349" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350" t="s">
         <v>732</v>
       </c>
@@ -6679,8 +9771,17 @@
       <c r="C350" s="15">
         <v>98808</v>
       </c>
-    </row>
-    <row r="351" spans="1:3">
+      <c r="D350" s="21">
+        <v>12068</v>
+      </c>
+      <c r="E350" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F350" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351" t="s">
         <v>733</v>
       </c>
@@ -6690,8 +9791,17 @@
       <c r="C351" s="15">
         <v>217954</v>
       </c>
-    </row>
-    <row r="352" spans="1:3">
+      <c r="D351" s="21">
+        <v>12069</v>
+      </c>
+      <c r="E351" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F351" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352" t="s">
         <v>734</v>
       </c>
@@ -6701,8 +9811,17 @@
       <c r="C352" s="15">
         <v>76096</v>
       </c>
-    </row>
-    <row r="353" spans="1:3">
+      <c r="D352" s="21">
+        <v>12070</v>
+      </c>
+      <c r="E352" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F352" s="25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353" t="s">
         <v>735</v>
       </c>
@@ -6712,8 +9831,17 @@
       <c r="C353" s="15">
         <v>113011</v>
       </c>
-    </row>
-    <row r="354" spans="1:3">
+      <c r="D353" s="21">
+        <v>12071</v>
+      </c>
+      <c r="E353" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F353" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354" t="s">
         <v>736</v>
       </c>
@@ -6723,8 +9851,17 @@
       <c r="C354" s="15">
         <v>171554</v>
       </c>
-    </row>
-    <row r="355" spans="1:3">
+      <c r="D354" s="21">
+        <v>12072</v>
+      </c>
+      <c r="E354" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F354" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355" t="s">
         <v>737</v>
       </c>
@@ -6734,8 +9871,17 @@
       <c r="C355" s="15">
         <v>118250</v>
       </c>
-    </row>
-    <row r="356" spans="1:3">
+      <c r="D355" s="21">
+        <v>12073</v>
+      </c>
+      <c r="E355" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F355" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356" t="s">
         <v>738</v>
       </c>
@@ -6745,8 +9891,17 @@
       <c r="C356" s="15">
         <v>209061</v>
       </c>
-    </row>
-    <row r="357" spans="1:3">
+      <c r="D356" s="21">
+        <v>13003</v>
+      </c>
+      <c r="E356" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F356" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
       <c r="A357" t="s">
         <v>739</v>
       </c>
@@ -6756,8 +9911,17 @@
       <c r="C357" s="15">
         <v>95609</v>
       </c>
-    </row>
-    <row r="358" spans="1:3">
+      <c r="D357" s="21">
+        <v>13004</v>
+      </c>
+      <c r="E357" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F357" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
       <c r="A358" t="s">
         <v>740</v>
       </c>
@@ -6767,8 +9931,17 @@
       <c r="C358" s="19">
         <v>258057</v>
       </c>
-    </row>
-    <row r="359" spans="1:3">
+      <c r="D358" s="21">
+        <v>13071</v>
+      </c>
+      <c r="E358" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F358" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359" t="s">
         <v>741</v>
       </c>
@@ -6778,8 +9951,17 @@
       <c r="C359" s="15">
         <v>217072</v>
       </c>
-    </row>
-    <row r="360" spans="1:3">
+      <c r="D359" s="21">
+        <v>13072</v>
+      </c>
+      <c r="E359" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F359" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360" t="s">
         <v>742</v>
       </c>
@@ -6789,8 +9971,17 @@
       <c r="C360" s="15">
         <v>225383</v>
       </c>
-    </row>
-    <row r="361" spans="1:3">
+      <c r="D360" s="21">
+        <v>13073</v>
+      </c>
+      <c r="E360" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F360" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361" t="s">
         <v>743</v>
       </c>
@@ -6800,8 +9991,17 @@
       <c r="C361" s="15">
         <v>157975</v>
       </c>
-    </row>
-    <row r="362" spans="1:3">
+      <c r="D361" s="21">
+        <v>13074</v>
+      </c>
+      <c r="E361" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F361" s="25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362" t="s">
         <v>744</v>
       </c>
@@ -6811,8 +10011,17 @@
       <c r="C362" s="15">
         <v>235773</v>
       </c>
-    </row>
-    <row r="363" spans="1:3">
+      <c r="D362" s="21">
+        <v>13075</v>
+      </c>
+      <c r="E362" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F362" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
       <c r="A363" t="s">
         <v>745</v>
       </c>
@@ -6822,8 +10031,17 @@
       <c r="C363" s="15">
         <v>211844</v>
       </c>
-    </row>
-    <row r="364" spans="1:3">
+      <c r="D363" s="21">
+        <v>13076</v>
+      </c>
+      <c r="E363" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F363" s="25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
       <c r="A364" t="s">
         <v>746</v>
       </c>
@@ -6833,8 +10051,17 @@
       <c r="C364" s="15">
         <v>244401</v>
       </c>
-    </row>
-    <row r="365" spans="1:3">
+      <c r="D364" s="21">
+        <v>14511</v>
+      </c>
+      <c r="E364" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="F364" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365" t="s">
         <v>747</v>
       </c>
@@ -6844,8 +10071,17 @@
       <c r="C365" s="15">
         <v>331917</v>
       </c>
-    </row>
-    <row r="366" spans="1:3">
+      <c r="D365" s="21">
+        <v>14521</v>
+      </c>
+      <c r="E365" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F365" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366" t="s">
         <v>748</v>
       </c>
@@ -6855,8 +10091,17 @@
       <c r="C366" s="15">
         <v>301474</v>
       </c>
-    </row>
-    <row r="367" spans="1:3">
+      <c r="D366" s="21">
+        <v>14522</v>
+      </c>
+      <c r="E366" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F366" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367" t="s">
         <v>749</v>
       </c>
@@ -6866,8 +10111,17 @@
       <c r="C367" s="15">
         <v>223905</v>
       </c>
-    </row>
-    <row r="368" spans="1:3">
+      <c r="D367" s="21">
+        <v>14523</v>
+      </c>
+      <c r="E367" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F367" s="25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368" t="s">
         <v>750</v>
       </c>
@@ -6877,8 +10131,17 @@
       <c r="C368" s="15">
         <v>312033</v>
       </c>
-    </row>
-    <row r="369" spans="1:3">
+      <c r="D368" s="21">
+        <v>14524</v>
+      </c>
+      <c r="E368" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F368" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369" t="s">
         <v>751</v>
       </c>
@@ -6888,8 +10151,17 @@
       <c r="C369" s="15">
         <v>556227</v>
       </c>
-    </row>
-    <row r="370" spans="1:3">
+      <c r="D369" s="21">
+        <v>14612</v>
+      </c>
+      <c r="E369" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F369" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370" t="s">
         <v>752</v>
       </c>
@@ -6899,8 +10171,17 @@
       <c r="C370" s="15">
         <v>298010</v>
       </c>
-    </row>
-    <row r="371" spans="1:3">
+      <c r="D370" s="21">
+        <v>14625</v>
+      </c>
+      <c r="E370" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F370" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371" t="s">
         <v>753</v>
       </c>
@@ -6910,8 +10191,17 @@
       <c r="C371" s="15">
         <v>250558</v>
       </c>
-    </row>
-    <row r="372" spans="1:3">
+      <c r="D371" s="21">
+        <v>14626</v>
+      </c>
+      <c r="E371" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F371" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
       <c r="A372" t="s">
         <v>754</v>
       </c>
@@ -6921,8 +10211,17 @@
       <c r="C372" s="15">
         <v>240371</v>
       </c>
-    </row>
-    <row r="373" spans="1:3">
+      <c r="D372" s="21">
+        <v>14627</v>
+      </c>
+      <c r="E372" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F372" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
       <c r="A373" t="s">
         <v>755</v>
       </c>
@@ -6932,8 +10231,17 @@
       <c r="C373" s="15">
         <v>244722</v>
       </c>
-    </row>
-    <row r="374" spans="1:3">
+      <c r="D373" s="21">
+        <v>14628</v>
+      </c>
+      <c r="E373" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F373" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374" t="s">
         <v>756</v>
       </c>
@@ -6943,8 +10251,17 @@
       <c r="C374" s="15">
         <v>597493</v>
       </c>
-    </row>
-    <row r="375" spans="1:3">
+      <c r="D374" s="21">
+        <v>14713</v>
+      </c>
+      <c r="E374" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F374" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375" t="s">
         <v>757</v>
       </c>
@@ -6954,8 +10271,17 @@
       <c r="C375" s="15">
         <v>258386</v>
       </c>
-    </row>
-    <row r="376" spans="1:3">
+      <c r="D375" s="21">
+        <v>14729</v>
+      </c>
+      <c r="E375" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F375" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
       <c r="A376" t="s">
         <v>758</v>
       </c>
@@ -6965,8 +10291,17 @@
       <c r="C376" s="15">
         <v>197444</v>
       </c>
-    </row>
-    <row r="377" spans="1:3">
+      <c r="D376" s="21">
+        <v>14730</v>
+      </c>
+      <c r="E376" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F376" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377" t="s">
         <v>759</v>
       </c>
@@ -6976,8 +10311,17 @@
       <c r="C377" s="15">
         <v>79354</v>
       </c>
-    </row>
-    <row r="378" spans="1:3">
+      <c r="D377" s="21">
+        <v>15001</v>
+      </c>
+      <c r="E377" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F377" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
       <c r="A378" t="s">
         <v>760</v>
       </c>
@@ -6987,8 +10331,17 @@
       <c r="C378" s="15">
         <v>237865</v>
       </c>
-    </row>
-    <row r="379" spans="1:3">
+      <c r="D378" s="21">
+        <v>15002</v>
+      </c>
+      <c r="E378" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F378" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
       <c r="A379" t="s">
         <v>761</v>
       </c>
@@ -6998,8 +10351,17 @@
       <c r="C379" s="15">
         <v>235775</v>
       </c>
-    </row>
-    <row r="380" spans="1:3">
+      <c r="D379" s="21">
+        <v>15003</v>
+      </c>
+      <c r="E379" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F379" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
       <c r="A380" t="s">
         <v>762</v>
       </c>
@@ -7009,8 +10371,17 @@
       <c r="C380" s="15">
         <v>82687</v>
       </c>
-    </row>
-    <row r="381" spans="1:3">
+      <c r="D380" s="21">
+        <v>15081</v>
+      </c>
+      <c r="E380" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F380" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
       <c r="A381" t="s">
         <v>763</v>
       </c>
@@ -7020,8 +10391,17 @@
       <c r="C381" s="15">
         <v>157217</v>
       </c>
-    </row>
-    <row r="382" spans="1:3">
+      <c r="D381" s="21">
+        <v>15082</v>
+      </c>
+      <c r="E381" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F381" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
       <c r="A382" t="s">
         <v>764</v>
       </c>
@@ -7031,8 +10411,17 @@
       <c r="C382" s="15">
         <v>170567</v>
       </c>
-    </row>
-    <row r="383" spans="1:3">
+      <c r="D382" s="21">
+        <v>15083</v>
+      </c>
+      <c r="E382" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F382" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383" t="s">
         <v>765</v>
       </c>
@@ -7042,8 +10431,17 @@
       <c r="C383" s="15">
         <v>177590</v>
       </c>
-    </row>
-    <row r="384" spans="1:3">
+      <c r="D383" s="21">
+        <v>15084</v>
+      </c>
+      <c r="E383" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F383" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384" t="s">
         <v>766</v>
       </c>
@@ -7053,8 +10451,17 @@
       <c r="C384" s="15">
         <v>210975</v>
       </c>
-    </row>
-    <row r="385" spans="1:3">
+      <c r="D384" s="21">
+        <v>15085</v>
+      </c>
+      <c r="E384" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F384" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10">
       <c r="A385" t="s">
         <v>767</v>
       </c>
@@ -7064,8 +10471,17 @@
       <c r="C385" s="15">
         <v>89403</v>
       </c>
-    </row>
-    <row r="386" spans="1:3">
+      <c r="D385" s="21">
+        <v>15086</v>
+      </c>
+      <c r="E385" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F385" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10">
       <c r="A386" t="s">
         <v>768</v>
       </c>
@@ -7075,8 +10491,17 @@
       <c r="C386" s="15">
         <v>133690</v>
       </c>
-    </row>
-    <row r="387" spans="1:3">
+      <c r="D386" s="21">
+        <v>15087</v>
+      </c>
+      <c r="E386" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F386" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10">
       <c r="A387" t="s">
         <v>769</v>
       </c>
@@ -7086,8 +10511,17 @@
       <c r="C387" s="15">
         <v>183434</v>
       </c>
-    </row>
-    <row r="388" spans="1:3">
+      <c r="D387" s="21">
+        <v>15088</v>
+      </c>
+      <c r="E387" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F387" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10">
       <c r="A388" t="s">
         <v>770</v>
       </c>
@@ -7097,8 +10531,17 @@
       <c r="C388" s="15">
         <v>187457</v>
       </c>
-    </row>
-    <row r="389" spans="1:3">
+      <c r="D388" s="21">
+        <v>15089</v>
+      </c>
+      <c r="E388" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F388" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10">
       <c r="A389" t="s">
         <v>771</v>
       </c>
@@ -7108,8 +10551,17 @@
       <c r="C389" s="15">
         <v>110485</v>
       </c>
-    </row>
-    <row r="390" spans="1:3">
+      <c r="D389" s="21">
+        <v>15090</v>
+      </c>
+      <c r="E389" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F389" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10">
       <c r="A390" t="s">
         <v>772</v>
       </c>
@@ -7119,8 +10571,17 @@
       <c r="C390" s="15">
         <v>124185</v>
       </c>
-    </row>
-    <row r="391" spans="1:3">
+      <c r="D390" s="21">
+        <v>15091</v>
+      </c>
+      <c r="E390" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F390" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10">
       <c r="A391" t="s">
         <v>773</v>
       </c>
@@ -7130,8 +10591,17 @@
       <c r="C391" s="15">
         <v>213692</v>
       </c>
-    </row>
-    <row r="392" spans="1:3">
+      <c r="D391" s="21">
+        <v>16051</v>
+      </c>
+      <c r="E391" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F391" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10">
       <c r="A392" t="s">
         <v>774</v>
       </c>
@@ -7141,8 +10611,17 @@
       <c r="C392" s="15">
         <v>92126</v>
       </c>
-    </row>
-    <row r="393" spans="1:3">
+      <c r="D392" s="21">
+        <v>16052</v>
+      </c>
+      <c r="E392" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F392" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10">
       <c r="A393" t="s">
         <v>775</v>
       </c>
@@ -7152,8 +10631,17 @@
       <c r="C393" s="15">
         <v>110731</v>
       </c>
-    </row>
-    <row r="394" spans="1:3">
+      <c r="D393" s="21">
+        <v>16053</v>
+      </c>
+      <c r="E393" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F393" s="25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10">
       <c r="A394" t="s">
         <v>776</v>
       </c>
@@ -7163,8 +10651,17 @@
       <c r="C394" s="15">
         <v>36395</v>
       </c>
-    </row>
-    <row r="395" spans="1:3">
+      <c r="D394" s="21">
+        <v>16054</v>
+      </c>
+      <c r="E394" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F394" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10">
       <c r="A395" t="s">
         <v>777</v>
       </c>
@@ -7174,8 +10671,17 @@
       <c r="C395" s="15">
         <v>65098</v>
       </c>
-    </row>
-    <row r="396" spans="1:3">
+      <c r="D395" s="21">
+        <v>16055</v>
+      </c>
+      <c r="E395" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F395" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10">
       <c r="A396" t="s">
         <v>778</v>
       </c>
@@ -7185,8 +10691,17 @@
       <c r="C396" s="15">
         <v>99463</v>
       </c>
-    </row>
-    <row r="397" spans="1:3">
+      <c r="D396" s="21">
+        <v>16061</v>
+      </c>
+      <c r="E396" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F396" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10">
       <c r="A397" t="s">
         <v>779</v>
       </c>
@@ -7196,8 +10711,17 @@
       <c r="C397" s="15">
         <v>82456</v>
       </c>
-    </row>
-    <row r="398" spans="1:3">
+      <c r="D397" s="21">
+        <v>16062</v>
+      </c>
+      <c r="E397" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F397" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10">
       <c r="A398" t="s">
         <v>780</v>
       </c>
@@ -7205,10 +10729,23 @@
         <v>371</v>
       </c>
       <c r="C398" s="15">
-        <v>117967</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
+        <v>159937</v>
+      </c>
+      <c r="D398" s="21">
+        <v>16063</v>
+      </c>
+      <c r="E398" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F398" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="I398">
+        <v>41970</v>
+      </c>
+      <c r="J398" s="29"/>
+    </row>
+    <row r="399" spans="1:10">
       <c r="A399" t="s">
         <v>781</v>
       </c>
@@ -7218,8 +10755,17 @@
       <c r="C399" s="15">
         <v>101698</v>
       </c>
-    </row>
-    <row r="400" spans="1:3">
+      <c r="D399" s="21">
+        <v>16064</v>
+      </c>
+      <c r="E399" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F399" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10">
       <c r="A400" t="s">
         <v>782</v>
       </c>
@@ -7229,8 +10775,17 @@
       <c r="C400" s="15">
         <v>73522</v>
       </c>
-    </row>
-    <row r="401" spans="1:3">
+      <c r="D400" s="21">
+        <v>16065</v>
+      </c>
+      <c r="E400" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F400" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
       <c r="A401" t="s">
         <v>783</v>
       </c>
@@ -7240,8 +10795,17 @@
       <c r="C401" s="15">
         <v>124241</v>
       </c>
-    </row>
-    <row r="402" spans="1:3">
+      <c r="D401" s="21">
+        <v>16066</v>
+      </c>
+      <c r="E401" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F401" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
       <c r="A402" t="s">
         <v>784</v>
       </c>
@@ -7251,8 +10815,17 @@
       <c r="C402" s="15">
         <v>134563</v>
       </c>
-    </row>
-    <row r="403" spans="1:3">
+      <c r="D402" s="21">
+        <v>16067</v>
+      </c>
+      <c r="E402" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F402" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
       <c r="A403" t="s">
         <v>785</v>
       </c>
@@ -7262,8 +10835,17 @@
       <c r="C403" s="15">
         <v>69107</v>
       </c>
-    </row>
-    <row r="404" spans="1:3">
+      <c r="D403" s="21">
+        <v>16068</v>
+      </c>
+      <c r="E403" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F403" s="25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
       <c r="A404" t="s">
         <v>786</v>
       </c>
@@ -7273,8 +10855,17 @@
       <c r="C404" s="15">
         <v>62656</v>
       </c>
-    </row>
-    <row r="405" spans="1:3">
+      <c r="D404" s="21">
+        <v>16069</v>
+      </c>
+      <c r="E404" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F404" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
       <c r="A405" t="s">
         <v>787</v>
       </c>
@@ -7284,8 +10875,17 @@
       <c r="C405" s="15">
         <v>105606</v>
       </c>
-    </row>
-    <row r="406" spans="1:3">
+      <c r="D405" s="21">
+        <v>16070</v>
+      </c>
+      <c r="E405" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F405" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
       <c r="A406" t="s">
         <v>788</v>
       </c>
@@ -7295,8 +10895,17 @@
       <c r="C406" s="15">
         <v>82291</v>
       </c>
-    </row>
-    <row r="407" spans="1:3">
+      <c r="D406" s="21">
+        <v>16071</v>
+      </c>
+      <c r="E406" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F406" s="25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
       <c r="A407" t="s">
         <v>789</v>
       </c>
@@ -7306,8 +10915,17 @@
       <c r="C407" s="15">
         <v>57044</v>
       </c>
-    </row>
-    <row r="408" spans="1:3">
+      <c r="D407" s="21">
+        <v>16072</v>
+      </c>
+      <c r="E407" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F407" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
       <c r="A408" t="s">
         <v>790</v>
       </c>
@@ -7317,8 +10935,17 @@
       <c r="C408" s="15">
         <v>102139</v>
       </c>
-    </row>
-    <row r="409" spans="1:3">
+      <c r="D408" s="21">
+        <v>16073</v>
+      </c>
+      <c r="E408" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F408" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
       <c r="A409" t="s">
         <v>791</v>
       </c>
@@ -7328,8 +10955,17 @@
       <c r="C409" s="15">
         <v>82816</v>
       </c>
-    </row>
-    <row r="410" spans="1:3">
+      <c r="D409" s="21">
+        <v>16074</v>
+      </c>
+      <c r="E409" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F409" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
       <c r="A410" t="s">
         <v>792</v>
       </c>
@@ -7339,8 +10975,17 @@
       <c r="C410" s="15">
         <v>79632</v>
       </c>
-    </row>
-    <row r="411" spans="1:3">
+      <c r="D410" s="21">
+        <v>16075</v>
+      </c>
+      <c r="E410" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F410" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
       <c r="A411" t="s">
         <v>793</v>
       </c>
@@ -7350,8 +10995,17 @@
       <c r="C411" s="15">
         <v>96668</v>
       </c>
-    </row>
-    <row r="412" spans="1:3">
+      <c r="D411" s="21">
+        <v>16076</v>
+      </c>
+      <c r="E411" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F411" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
       <c r="A412" t="s">
         <v>794</v>
       </c>
@@ -7361,83 +11015,120 @@
       <c r="C412" s="15">
         <v>88356</v>
       </c>
-    </row>
-    <row r="414" spans="1:3">
+      <c r="D412" s="21">
+        <v>16077</v>
+      </c>
+      <c r="E412" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F412" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="C413" s="17"/>
+      <c r="D413" s="26"/>
+      <c r="E413" s="27"/>
+      <c r="F413" s="21"/>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="B414" s="2"/>
       <c r="C414" s="17"/>
-    </row>
-    <row r="415" spans="1:3">
-      <c r="B415" s="2"/>
-      <c r="C415" s="17"/>
-    </row>
-    <row r="421" spans="2:3">
-      <c r="B421" s="2"/>
-      <c r="C421" s="17"/>
-    </row>
-    <row r="427" spans="2:3">
-      <c r="B427" s="2"/>
-      <c r="C427" s="17"/>
-    </row>
-    <row r="431" spans="2:3">
-      <c r="B431" s="3"/>
-      <c r="C431" s="16"/>
-    </row>
-    <row r="432" spans="2:3">
-      <c r="C432" s="17"/>
-    </row>
-    <row r="447" spans="2:3">
-      <c r="B447" s="3"/>
-      <c r="C447" s="16"/>
-    </row>
-    <row r="448" spans="2:3">
-      <c r="C448" s="17"/>
+      <c r="D414" s="27"/>
+      <c r="E414" s="27"/>
+      <c r="F414" s="25"/>
+    </row>
+    <row r="420" spans="2:6">
+      <c r="B420" s="2"/>
+      <c r="C420" s="17"/>
+      <c r="D420" s="27"/>
+      <c r="E420" s="27"/>
+      <c r="F420" s="25"/>
+    </row>
+    <row r="426" spans="2:6">
+      <c r="B426" s="2"/>
+      <c r="C426" s="17"/>
+      <c r="D426" s="27"/>
+      <c r="E426" s="27"/>
+      <c r="F426" s="25"/>
+    </row>
+    <row r="430" spans="2:6">
+      <c r="B430" s="3"/>
+      <c r="C430" s="16"/>
+      <c r="D430" s="21"/>
+      <c r="E430" s="21"/>
+      <c r="F430" s="3"/>
+    </row>
+    <row r="431" spans="2:6">
+      <c r="C431" s="17"/>
+      <c r="D431" s="26"/>
+      <c r="E431" s="27"/>
+      <c r="F431" s="21"/>
+    </row>
+    <row r="446" spans="2:6">
+      <c r="B446" s="3"/>
+      <c r="C446" s="16"/>
+      <c r="D446" s="21"/>
+      <c r="E446" s="21"/>
+      <c r="F446" s="3"/>
+    </row>
+    <row r="447" spans="2:6">
+      <c r="C447" s="17"/>
+      <c r="D447" s="26"/>
+      <c r="E447" s="27"/>
+      <c r="F447" s="21"/>
+    </row>
+    <row r="471" spans="2:3">
+      <c r="B471" s="3"/>
+      <c r="C471" s="16"/>
     </row>
     <row r="472" spans="2:3">
       <c r="B472" s="3"/>
       <c r="C472" s="16"/>
     </row>
-    <row r="473" spans="2:3">
-      <c r="B473" s="3"/>
-      <c r="C473" s="16"/>
+    <row r="474" spans="2:3">
+      <c r="B474" s="7"/>
+      <c r="C474" s="16"/>
     </row>
     <row r="475" spans="2:3">
-      <c r="B475" s="7"/>
-      <c r="C475" s="16"/>
+      <c r="B475" s="8"/>
+      <c r="C475" s="20"/>
     </row>
     <row r="476" spans="2:3">
-      <c r="B476" s="8"/>
-      <c r="C476" s="20"/>
+      <c r="B476" s="9"/>
+      <c r="C476" s="21"/>
     </row>
     <row r="477" spans="2:3">
-      <c r="B477" s="9"/>
-      <c r="C477" s="21"/>
+      <c r="B477" s="8"/>
+      <c r="C477" s="20"/>
     </row>
     <row r="478" spans="2:3">
-      <c r="B478" s="8"/>
-      <c r="C478" s="20"/>
+      <c r="B478" s="10"/>
+      <c r="C478" s="22"/>
     </row>
     <row r="479" spans="2:3">
       <c r="B479" s="10"/>
       <c r="C479" s="22"/>
     </row>
     <row r="480" spans="2:3">
-      <c r="B480" s="10"/>
-      <c r="C480" s="22"/>
+      <c r="B480" s="11"/>
+      <c r="C480" s="23"/>
     </row>
     <row r="481" spans="2:3">
-      <c r="B481" s="11"/>
-      <c r="C481" s="23"/>
+      <c r="B481"/>
+      <c r="C481"/>
     </row>
     <row r="482" spans="2:3">
       <c r="B482"/>
       <c r="C482"/>
     </row>
     <row r="483" spans="2:3">
-      <c r="B483"/>
-      <c r="C483"/>
+      <c r="B483" s="12"/>
+      <c r="C483" s="12"/>
     </row>
     <row r="484" spans="2:3">
-      <c r="B484" s="12"/>
-      <c r="C484" s="12"/>
+      <c r="B484" s="13"/>
+      <c r="C484" s="13"/>
     </row>
     <row r="485" spans="2:3">
       <c r="B485" s="13"/>
@@ -7448,8 +11139,7 @@
       <c r="C486" s="13"/>
     </row>
     <row r="487" spans="2:3">
-      <c r="B487" s="13"/>
-      <c r="C487" s="13"/>
+      <c r="C487" s="17"/>
     </row>
     <row r="488" spans="2:3">
       <c r="C488" s="17"/>
@@ -7496,10 +11186,8 @@
     <row r="502" spans="3:3">
       <c r="C502" s="17"/>
     </row>
-    <row r="503" spans="3:3">
-      <c r="C503" s="17"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Einwohner_Landkreise.xlsx
+++ b/Einwohner_Landkreise.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PytProg\Covid\Covid01\streamlit_covid19_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6DF145-0BE6-4AC8-B708-A239312B2C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB949D97-A745-4DE7-90F1-DC6533E1FB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EE20E8F-FB29-4444-BDB8-95CB2631EB8D}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{8EE20E8F-FB29-4444-BDB8-95CB2631EB8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2889,7 +2888,7 @@
   <dimension ref="A1:J502"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="A396" sqref="A396:XFD396"/>
+      <selection activeCell="I398" sqref="I398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10740,9 +10739,6 @@
       <c r="F398" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="I398">
-        <v>41970</v>
-      </c>
       <c r="J398" s="29"/>
     </row>
     <row r="399" spans="1:10">
